--- a/reports_pdf/brasil/risk-pt/Cases/26-07-2020_recife_report.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/26-07-2020_recife_report.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,6 +1161,40 @@
         <v>107.9901732565037</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BEZERROS</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>515</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.567567567567568</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.066702144321192</v>
+      </c>
+      <c r="G24" t="n">
+        <v>176</v>
+      </c>
+      <c r="H24" t="n">
+        <v>289.4832066844304</v>
+      </c>
+      <c r="I24" t="n">
+        <v>187.7395774005298</v>
+      </c>
+      <c r="J24" t="n">
+        <v>308.7923573152567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
